--- a/x_TotalArea_y_MVPA/X_Test.xlsx
+++ b/x_TotalArea_y_MVPA/X_Test.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.02614497045694966</v>
+        <v>-0.8605606854416453</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06869306328576043</v>
+        <v>-0.8512169185982092</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.8019965923965395</v>
+        <v>-0.758305566942742</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1075594249136451</v>
+        <v>0.4926651412024134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5797088067200776</v>
+        <v>-0.7414017136482972</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.8342949566812904</v>
+        <v>-0.7185823084683535</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.06123024060236</v>
+        <v>0.7860243025408574</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.7844226114536308</v>
+        <v>2.171319096305812</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2029773275974881</v>
+        <v>0.78280895665831</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.154465982597419</v>
+        <v>1.065590788754768</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3976964843247778</v>
+        <v>-0.6310426250528318</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.08143049321510627</v>
+        <v>-0.8214768134698069</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4289025590694924</v>
+        <v>-0.8224578185924699</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.6914639366268247</v>
+        <v>1.270409269730082</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.224454904279914</v>
+        <v>-0.7991469915343599</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.489683698371243</v>
+        <v>-0.9264484972241931</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.8075697903724818</v>
+        <v>-0.6417850268482245</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.1124885975316798</v>
+        <v>2.133497251502823</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.8715515052771027</v>
+        <v>-0.8232221920275695</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5029096415879716</v>
+        <v>0.1762255942369553</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.07017988994445871</v>
+        <v>-0.04959659551610038</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6788226281186633</v>
+        <v>0.07564276497080082</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.508630243581498</v>
+        <v>0.5763006028221769</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7621797357798321</v>
+        <v>-0.9214524016784302</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.05081501914073362</v>
+        <v>-0.5656556958112332</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.679675471932093</v>
+        <v>-0.790818282478206</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.797079423765123</v>
+        <v>3.705832700595745</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.9080357467616037</v>
+        <v>-0.6429399618726666</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.7828782810366747</v>
+        <v>-0.7438809189090668</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.4216448049981841</v>
+        <v>-0.7974471916243423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.239727595122085</v>
+        <v>-0.6437601430561898</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.7669161735803763</v>
+        <v>0.03424295365056087</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.66414420939758</v>
+        <v>0.3951841549035423</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1219585614402095</v>
+        <v>-0.7629426925384724</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.8279104056358982</v>
+        <v>1.286217720254564</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.697128328337295</v>
+        <v>-0.6947678859089889</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.51278953639654</v>
+        <v>-0.8845850599331666</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.7820649202520474</v>
+        <v>0.3419550564565337</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3274666676101357</v>
+        <v>-0.9311563564249561</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.05380893174732728</v>
+        <v>2.603938148253456</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.05033357497126208</v>
+        <v>-0.8185607220369759</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.8892496778350764</v>
+        <v>0.5287643469142521</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1251817086873843</v>
+        <v>-0.737027071264297</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.3540129260006725</v>
+        <v>-0.7741951707551609</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.7399853072988688</v>
+        <v>-0.9047613102510945</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9508242413602396</v>
+        <v>-0.832898011344633</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.11445448950534</v>
+        <v>-0.8348983763029251</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3916134136480496</v>
+        <v>0.8599801269384555</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5079448577520063</v>
+        <v>0.05856829381611878</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.1755368794535958</v>
+        <v>0.7919176793842356</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.5493845078385471</v>
+        <v>-0.7273852074816222</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.2933736179856073</v>
+        <v>-0.9589005940358847</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.8836043686200841</v>
+        <v>3.738598039105828</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.7965356650532844</v>
+        <v>-0.7923919136785227</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.8282074430463352</v>
+        <v>-0.5731670096141179</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.7289536227882004</v>
+        <v>1.821166271084252</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.608994992912378</v>
+        <v>-0.8268065960848441</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.7684364732950644</v>
+        <v>1.749040757251625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.6981087498155868</v>
+        <v>2.145494518569831</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.295025412805987</v>
+        <v>0.1396143476100025</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.8973041207815891</v>
+        <v>0.05869752032647308</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.686865228740455</v>
+        <v>-0.7273541265400825</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.069882888848961</v>
+        <v>2.012462086891549</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.8015712389952686</v>
+        <v>-0.9716523634652933</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1391218430252559</v>
+        <v>0.3811080528219867</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.4559177756164192</v>
+        <v>-0.6844411202690611</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6017543818357932</v>
+        <v>0.161825584955167</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.7826338396134227</v>
+        <v>-0.8925485060839445</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.7056028632277195</v>
+        <v>0.1470031732709359</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.153441912587922</v>
+        <v>-0.8991241783635122</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.094832253195604</v>
+        <v>0.7056364388390418</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.8275519999090942</v>
+        <v>-0.2120112430415122</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.7145872725908617</v>
+        <v>1.685803412792743</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.075003058906471</v>
+        <v>-0.8484917716613952</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0535216638851141</v>
+        <v>-0.8962918980456785</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2077253182275466</v>
+        <v>0.4083520438326544</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.7929415169700487</v>
+        <v>-0.847814385280526</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.8959801665286603</v>
+        <v>-0.7063023090805571</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.432457100267882</v>
+        <v>-0.8793306631865966</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.707066792878973</v>
+        <v>0.03589727846064321</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.7518218170032632</v>
+        <v>0.3302765716301265</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.7827413316339038</v>
+        <v>-0.6351225022143776</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.216740943308918</v>
+        <v>-0.8089388389563825</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.8476230826305926</v>
+        <v>0.7864061777279095</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.3161839749779602</v>
+        <v>-0.5006608866590605</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.531577272686889</v>
+        <v>1.200447497614306</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.1840879769709962</v>
+        <v>1.588305363882529</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.6067626274446065</v>
+        <v>-0.9494644228076865</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.8161342707499203</v>
+        <v>-0.807463683178308</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7329296816359946</v>
+        <v>-0.8487597123336783</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.4928855495848706</v>
+        <v>-0.9115911330068962</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.9201856828724621</v>
+        <v>-0.3826400635651739</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.6741209935722147</v>
+        <v>-0.7846277804900798</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.9005492200328032</v>
+        <v>-0.8177565841573257</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.426530240118054</v>
+        <v>0.4334271752074226</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.7419044509860068</v>
+        <v>-0.7997097013837279</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.7609354721273104</v>
+        <v>1.55497905613484</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.8931230091519164</v>
+        <v>-0.8542596243444355</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.316922762283835</v>
+        <v>-0.9217954650612515</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.77550625594689</v>
+        <v>0.5485232957963623</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.7714027899982214</v>
+        <v>-0.07641162696159887</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.447096456041461</v>
+        <v>-0.6996390286470636</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.8934544458715989</v>
+        <v>-0.9121120299660358</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5270341617401019</v>
+        <v>2.347194734785525</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.07672127001307188</v>
+        <v>-0.04909826248414493</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6188420798623215</v>
+        <v>-0.9381092990554526</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.9133126469140226</v>
+        <v>3.90894001749304</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.7404534232709579</v>
+        <v>-0.3613753518720637</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.7733204242596553</v>
+        <v>1.969939303433186</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.9092153923766372</v>
+        <v>0.1292378108617271</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1908037267520587</v>
+        <v>-0.6530369545025285</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.7609236830494971</v>
+        <v>-0.7868978903214686</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.8291143257200925</v>
+        <v>0.4480227657008131</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.306288324781105</v>
+        <v>-0.6972211485112659</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.9008557624782186</v>
+        <v>0.2971041445838735</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.8537058034022273</v>
+        <v>1.151165703033581</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.06626343495757429</v>
+        <v>-0.9174431954999009</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.4158387309060976</v>
+        <v>2.618309066993589</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.2841357851836984</v>
+        <v>-0.3674908628768382</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.8878046608095048</v>
+        <v>-0.571364061069592</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.065933981586293</v>
+        <v>-0.7759416802586834</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.892576049764476</v>
+        <v>0.2862799123312904</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.3579356226672841</v>
+        <v>-0.4689101892539452</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.5548994125200709</v>
+        <v>-0.2478710232470445</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.6764911133522145</v>
+        <v>-0.7356718734910113</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8570858961834775</v>
+        <v>-0.8975393260384926</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.02219656474158879</v>
+        <v>0.4469492770633233</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.242369784862596</v>
+        <v>1.986415546295887</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.7207397990918707</v>
+        <v>-0.8743563565405355</v>
       </c>
     </row>
   </sheetData>
